--- a/Empresas.xlsx
+++ b/Empresas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,116 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>30160921000182</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N.H. LEANDRO COMERCIAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AVENIDA SANTA INES</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SALA 6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PARQUE MANDAQUI</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SAO PAULO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>02415000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11 33330099</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>comercialnhl2018@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>86606530000101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RECEMIL REPRESENTACOES EIRELI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RUA DAS MARGARIDAS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CAMPINA VERDE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CONTAGEM</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>32150360</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>31 33946910/ 31 34917670</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>conparque@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
